--- a/afccp/resources/shared/real/Value_Parameters_Defaults_2023_Backup.xlsx
+++ b/afccp/resources/shared/real/Value_Parameters_Defaults_2023_Backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffenlaird/Desktop/Coding Projects/afccp/afccp/resources/shared/real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4ACF16-0A28-9C49-BA1E-50D257943E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEB9C94-E930-DA45-95A1-D7C46437EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Weights" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="127">
   <si>
     <t>Cadets Overall</t>
   </si>
@@ -58,7 +58,7 @@
     <t>AFSC Weight Function</t>
   </si>
   <si>
-    <t>Piece</t>
+    <t>Curve_1</t>
   </si>
   <si>
     <t>AFSC</t>
@@ -211,6 +211,12 @@
     <t>19, 38</t>
   </si>
   <si>
+    <t>0.35, 5</t>
+  </si>
+  <si>
+    <t>0.2, 0.4</t>
+  </si>
+  <si>
     <t>134, 230</t>
   </si>
   <si>
@@ -226,9 +232,15 @@
     <t>195, 205</t>
   </si>
   <si>
+    <t>0.75, 5</t>
+  </si>
+  <si>
     <t>35, 70</t>
   </si>
   <si>
+    <t>0.65, 5</t>
+  </si>
+  <si>
     <t>25, 60</t>
   </si>
   <si>
@@ -265,12 +277,18 @@
     <t>42, 84</t>
   </si>
   <si>
+    <t>0.8, 5</t>
+  </si>
+  <si>
     <t>18, 20</t>
   </si>
   <si>
     <t>84, 89</t>
   </si>
   <si>
+    <t>0.2, 5</t>
+  </si>
+  <si>
     <t>1, 1</t>
   </si>
   <si>
@@ -286,7 +304,10 @@
     <t>20, 40</t>
   </si>
   <si>
-    <t>63, 126</t>
+    <t>51, 126</t>
+  </si>
+  <si>
+    <t>0.94, 5</t>
   </si>
   <si>
     <t>34, 68</t>
@@ -301,9 +322,6 @@
     <t>69, 138</t>
   </si>
   <si>
-    <t>0.2, 5</t>
-  </si>
-  <si>
     <t>50, 100</t>
   </si>
   <si>
@@ -313,63 +331,54 @@
     <t>Balance|0.15, 0.15, 0.1, 0.08, 0.08, 0.1, 0.6</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.1</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.2</t>
+  </si>
+  <si>
+    <t>Min Decreasing|0.3</t>
+  </si>
+  <si>
+    <t>Min Increasing|0.3</t>
+  </si>
+  <si>
     <t>Quota_Normal|0.2, 0.25, 0.2</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Min Increasing|0.2</t>
-  </si>
-  <si>
-    <t>Min Decreasing|0.3</t>
-  </si>
-  <si>
-    <t>Min Increasing|0.3</t>
+    <t>Quota_Direct|0.07, 0.5, 4, 0.2, 0.9, 0.8, 7</t>
   </si>
   <si>
     <t>Min Decreasing|0.2</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.8, 1.2, 0.8, 0.9, 0.88, 12</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 4, 0.2, 0.9, 0.8, 7</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.6, 0.2, 0.92, 0.95, 150</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 195</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 50</t>
+    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 60</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 181</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 84</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 61</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 29</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 9</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 18</t>
   </si>
   <si>
     <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 35</t>
   </si>
   <si>
-    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 60</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 181</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 84</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 61</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 29</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 9</t>
-  </si>
-  <si>
-    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 18</t>
-  </si>
-  <si>
     <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 28</t>
   </si>
   <si>
@@ -382,25 +391,34 @@
     <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.9, 34</t>
   </si>
   <si>
-    <t>Min Increasing|0.1</t>
-  </si>
-  <si>
-    <t>0.2, 0.4</t>
-  </si>
-  <si>
-    <t>0.35, 5</t>
-  </si>
-  <si>
-    <t>0.75, 5</t>
-  </si>
-  <si>
-    <t>0.65, 5</t>
-  </si>
-  <si>
-    <t>0.8, 5</t>
-  </si>
-  <si>
-    <t>Curve_1</t>
+    <t>Quota_Direct|0.07, 0.8, 1.2, 0.8, 0.9, 0.88, 14</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.8, 0.4, 0.3, 0.9, 0.95, 55</t>
+  </si>
+  <si>
+    <t>Curve_2</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.6, 0.2, 0.92, 0.95, 165</t>
+  </si>
+  <si>
+    <t>Min Increasing|-0.3</t>
+  </si>
+  <si>
+    <t>Quota_Direct|0.07, 0.5, 0.8, 0.2, 0.9, 0.75, 195</t>
+  </si>
+  <si>
+    <t>0.5, 5</t>
+  </si>
+  <si>
+    <t>USAFA-Constrained AFSCs</t>
+  </si>
+  <si>
+    <t>Similarity Constraint</t>
+  </si>
+  <si>
+    <t>35P, 38F, 64P, 65F</t>
   </si>
 </sst>
 </file>
@@ -428,11 +446,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,7 +491,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,20 +796,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,14 +827,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0.4</v>
+      </c>
+      <c r="B2">
         <v>0.6</v>
       </c>
-      <c r="B2">
-        <v>0.4</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -825,10 +848,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +867,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -862,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -873,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -895,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -994,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1005,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1016,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1027,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1049,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1060,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1082,7 +1108,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1093,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1104,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1115,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1126,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1159,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1170,7 +1196,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>55.49</v>
+        <v>55.48</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1218,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1291,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1305,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1329,7 +1355,7 @@
         <v>29.99999931</v>
       </c>
       <c r="J3">
-        <v>49.999998849999997</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1343,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>30.00000086999999</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>20.000000579999991</v>
@@ -1367,7 +1393,7 @@
         <v>20.000000579999991</v>
       </c>
       <c r="J4">
-        <v>49.999998550000022</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1381,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1405,7 +1431,7 @@
         <v>10.000000520000009</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1443,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1457,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1481,7 +1507,7 @@
         <v>19.999998919999999</v>
       </c>
       <c r="J7">
-        <v>50.000001349999998</v>
+        <v>30</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1495,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1519,7 +1545,7 @@
         <v>19.999999040000009</v>
       </c>
       <c r="J8">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1557,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1595,7 +1621,7 @@
         <v>19.999998919999999</v>
       </c>
       <c r="J10">
-        <v>50.000001349999998</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1609,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1633,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>50.000001100000013</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1671,7 +1697,7 @@
         <v>19.999998919999999</v>
       </c>
       <c r="J12">
-        <v>50.000001349999998</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1685,7 +1711,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1709,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>50.000001100000013</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1723,7 +1749,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1747,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1761,7 +1787,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1785,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1799,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1823,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1837,7 +1863,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1861,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1899,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>50.00000150000001</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1913,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1937,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1951,7 +1977,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1975,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="J20">
-        <v>50.000001100000013</v>
+        <v>30</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1989,7 +2015,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>30.000000300000011</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2004,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>70</v>
+        <v>69.999999700000004</v>
       </c>
       <c r="H21">
+        <v>30.000000300000011</v>
+      </c>
+      <c r="I21">
+        <v>20.00000120000001</v>
+      </c>
+      <c r="J21">
         <v>30</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>50</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2045,13 +2071,13 @@
         <v>90.000002080000016</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>20.000001040000011</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2065,7 +2091,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2089,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2103,7 +2129,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2127,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2141,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2165,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2179,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2203,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2217,7 +2243,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>20.000000530000001</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2232,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>89.999999279999997</v>
+        <v>89.999999734999989</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2241,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2279,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2293,7 +2319,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2317,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2355,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>49.999998800000007</v>
+        <v>30</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2393,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>50.00000150000001</v>
+        <v>30</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2407,7 +2433,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>29.999999729999999</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2425,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50.000001349999998</v>
+        <v>50</v>
       </c>
       <c r="I32">
-        <v>19.999998919999999</v>
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>50.000001349999998</v>
+        <v>30</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2445,7 +2471,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2469,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="J33">
-        <v>50.000001100000013</v>
+        <v>30</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2488,7 +2514,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2612,13 +2638,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C4">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2688,10 +2714,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C6">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D6">
         <v>195</v>
@@ -2802,10 +2828,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C9">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D9">
         <v>181</v>
@@ -2840,10 +2866,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C10">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D10">
         <v>84</v>
@@ -2916,10 +2942,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C12">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D12">
         <v>61</v>
@@ -3144,10 +3170,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C18">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D18">
         <v>42</v>
@@ -3258,7 +3284,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C21">
         <v>0.28192371475953559</v>
@@ -3314,10 +3340,10 @@
         <v>0.6</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I22">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3486,13 +3512,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.50095019880045821</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C27">
-        <v>0.32542624166048922</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3638,10 +3664,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C31">
-        <v>0.28192371475953559</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="D31">
         <v>69</v>
@@ -3676,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.50000171807800331</v>
+        <v>0.50000164487211118</v>
       </c>
       <c r="C32">
         <v>0.28192371475953559</v>
@@ -3757,7 +3783,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3804,11 +3830,11 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -3842,11 +3868,11 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -3857,8 +3883,8 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>53</v>
       </c>
       <c r="H3" t="s">
         <v>53</v>
@@ -3881,13 +3907,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -3896,7 +3922,7 @@
         <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
@@ -3905,7 +3931,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
         <v>53</v>
@@ -3918,14 +3944,14 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -3934,7 +3960,7 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>53</v>
@@ -3957,13 +3983,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -3972,7 +3998,7 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -3994,14 +4020,14 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -4010,7 +4036,7 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -4032,14 +4058,14 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -4048,7 +4074,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -4071,13 +4097,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -4086,7 +4112,7 @@
         <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -4109,13 +4135,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -4123,8 +4149,8 @@
       <c r="F10" t="s">
         <v>53</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>53</v>
@@ -4146,14 +4172,14 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -4161,8 +4187,8 @@
       <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" t="s">
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>53</v>
@@ -4185,13 +4211,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -4199,8 +4225,8 @@
       <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
@@ -4222,14 +4248,14 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -4237,8 +4263,8 @@
       <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="G13" t="s">
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>53</v>
@@ -4260,14 +4286,14 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -4276,7 +4302,7 @@
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
         <v>53</v>
@@ -4298,14 +4324,14 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>53</v>
@@ -4314,7 +4340,7 @@
         <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -4336,14 +4362,14 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -4352,7 +4378,7 @@
         <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
         <v>53</v>
@@ -4374,14 +4400,14 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -4390,7 +4416,7 @@
         <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
@@ -4413,13 +4439,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
@@ -4428,7 +4454,7 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
         <v>53</v>
@@ -4450,14 +4476,14 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -4466,7 +4492,7 @@
         <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
         <v>53</v>
@@ -4488,14 +4514,14 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -4504,7 +4530,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>53</v>
@@ -4527,13 +4553,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -4542,7 +4568,7 @@
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
         <v>53</v>
@@ -4564,14 +4590,14 @@
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -4580,7 +4606,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
         <v>53</v>
@@ -4602,14 +4628,14 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
         <v>53</v>
@@ -4618,7 +4644,7 @@
         <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -4640,14 +4666,14 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
@@ -4656,7 +4682,7 @@
         <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
         <v>53</v>
@@ -4678,14 +4704,14 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -4694,7 +4720,7 @@
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
@@ -4716,14 +4742,14 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
@@ -4732,7 +4758,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
         <v>53</v>
@@ -4754,14 +4780,14 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -4770,7 +4796,7 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
         <v>53</v>
@@ -4792,14 +4818,14 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>53</v>
@@ -4808,7 +4834,7 @@
         <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
         <v>53</v>
@@ -4830,14 +4856,14 @@
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -4846,7 +4872,7 @@
         <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
         <v>53</v>
@@ -4868,14 +4894,14 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>53</v>
@@ -4884,7 +4910,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
         <v>53</v>
@@ -4907,13 +4933,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>53</v>
@@ -4922,7 +4948,7 @@
         <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>53</v>
@@ -4945,13 +4971,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
@@ -4959,8 +4985,8 @@
       <c r="F32" t="s">
         <v>53</v>
       </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="G32" t="s">
+        <v>53</v>
       </c>
       <c r="H32" t="s">
         <v>53</v>
@@ -4982,14 +5008,14 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
@@ -4997,8 +5023,8 @@
       <c r="F33" t="s">
         <v>53</v>
       </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="G33" t="s">
+        <v>53</v>
       </c>
       <c r="H33" t="s">
         <v>53</v>
@@ -5026,13 +5052,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5177,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -6297,17 +6320,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -6353,37 +6374,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6391,37 +6412,37 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6429,37 +6450,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6467,37 +6488,37 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6505,37 +6526,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6543,37 +6564,37 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6581,37 +6602,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6619,37 +6640,37 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
         <v>104</v>
       </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
-      </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6657,37 +6678,37 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6695,37 +6716,37 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6733,37 +6754,37 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6771,37 +6792,37 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6809,37 +6830,37 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6847,37 +6868,37 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6885,37 +6906,37 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6923,37 +6944,37 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6961,37 +6982,37 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6999,37 +7020,37 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -7037,37 +7058,37 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -7075,37 +7096,37 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -7113,37 +7134,37 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -7151,37 +7172,37 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -7189,37 +7210,37 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -7227,37 +7248,37 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -7265,37 +7286,37 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -7303,37 +7324,37 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -7341,37 +7362,37 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -7379,37 +7400,37 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -7417,37 +7438,37 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -7455,37 +7476,37 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -7493,37 +7514,37 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -7531,37 +7552,37 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
